--- a/ملفات الاكسل لمشروع التخرج/احمال الدكاترة.xlsx
+++ b/ملفات الاكسل لمشروع التخرج/احمال الدكاترة.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bit\Desktop\tamplete\final\timetable-pro\ملفات الاكسل لمشروع التخرج\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBD764F-651F-4B6C-9777-C6F2552CBB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBB6D06-9EAD-4B8B-BB47-84F5F14E6858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="الاحمال الدراسية " sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -375,24 +374,6 @@
     <t>م. أكرم أبو جراد</t>
   </si>
   <si>
-    <t>mmmm2</t>
-  </si>
-  <si>
-    <t>mmmm1</t>
-  </si>
-  <si>
-    <t>mmmm5</t>
-  </si>
-  <si>
-    <t>mmmm4</t>
-  </si>
-  <si>
-    <t>mmmm3</t>
-  </si>
-  <si>
-    <t>موضوعات مختارة في mmmm</t>
-  </si>
-  <si>
     <t>مختبر فيزياء عامة I</t>
   </si>
   <si>
@@ -403,6 +384,24 @@
   </si>
   <si>
     <t>د. شوقي منصور</t>
+  </si>
+  <si>
+    <t>CSE5</t>
+  </si>
+  <si>
+    <t>CSE3</t>
+  </si>
+  <si>
+    <t>CSE1</t>
+  </si>
+  <si>
+    <t>CSE2</t>
+  </si>
+  <si>
+    <t>CSE4</t>
+  </si>
+  <si>
+    <t>موضوعات مختارة في CSE</t>
   </si>
 </sst>
 </file>
@@ -1378,12 +1377,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
@@ -1399,179 +1569,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1879,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1949,17 +1948,17 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140">
-        <v>1</v>
-      </c>
-      <c r="B2" s="97" t="s">
+      <c r="A2" s="161">
+        <v>1</v>
+      </c>
+      <c r="B2" s="155" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1988,18 +1987,18 @@
         <f>K2+M2</f>
         <v>3</v>
       </c>
-      <c r="O2" s="111">
+      <c r="O2" s="113">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="98"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="127"/>
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -2028,16 +2027,16 @@
         <f>K3+M3</f>
         <v>3</v>
       </c>
-      <c r="O3" s="111"/>
+      <c r="O3" s="113"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="99"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -2066,32 +2065,32 @@
         <f t="shared" ref="N4" si="0">K4+M4</f>
         <v>3</v>
       </c>
-      <c r="O4" s="111"/>
+      <c r="O4" s="113"/>
     </row>
     <row r="5" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="89"/>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="149"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="123"/>
       <c r="N5" s="25">
         <f>SUM(N2:N4)</f>
         <v>9</v>
       </c>
-      <c r="O5" s="112"/>
+      <c r="O5" s="114"/>
     </row>
     <row r="6" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="104">
+      <c r="A6" s="97">
         <v>2</v>
       </c>
       <c r="B6" s="76" t="s">
@@ -2101,7 +2100,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -2110,8 +2109,8 @@
         <v>0</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
       <c r="J6" s="11">
         <v>3</v>
       </c>
@@ -2130,12 +2129,12 @@
         <f>K6+M6</f>
         <v>3</v>
       </c>
-      <c r="O6" s="116">
+      <c r="O6" s="124">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="76" t="s">
         <v>104</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -2152,8 +2151,8 @@
         <v>3</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
       <c r="J7" s="2">
         <v>0</v>
       </c>
@@ -2172,10 +2171,10 @@
         <f t="shared" ref="N7:N8" si="1">K7+M7</f>
         <v>4</v>
       </c>
-      <c r="O7" s="111"/>
+      <c r="O7" s="113"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="76" t="s">
         <v>104</v>
       </c>
@@ -2192,8 +2191,8 @@
         <v>1</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
       <c r="J8" s="2">
         <v>2</v>
       </c>
@@ -2212,10 +2211,10 @@
         <f t="shared" si="1"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="O8" s="111"/>
+      <c r="O8" s="113"/>
     </row>
     <row r="9" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+      <c r="A9" s="98"/>
       <c r="B9" s="76" t="s">
         <v>104</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -2232,8 +2231,8 @@
         <v>0</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
       <c r="J9" s="5">
         <v>3</v>
       </c>
@@ -2252,42 +2251,42 @@
         <f>K9+M9</f>
         <v>3</v>
       </c>
-      <c r="O9" s="111"/>
+      <c r="O9" s="113"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
+      <c r="A10" s="161"/>
       <c r="B10" s="75"/>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
       <c r="M10" s="24"/>
       <c r="N10" s="25">
         <f>SUM(N6:N9)</f>
         <v>13.333333333333332</v>
       </c>
-      <c r="O10" s="112"/>
+      <c r="O10" s="114"/>
     </row>
     <row r="11" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="145">
-        <v>3</v>
-      </c>
-      <c r="B11" s="143" t="s">
+      <c r="A11" s="129">
+        <v>3</v>
+      </c>
+      <c r="B11" s="126" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
@@ -2316,18 +2315,18 @@
         <f>K11+M11</f>
         <v>3</v>
       </c>
-      <c r="O11" s="110">
+      <c r="O11" s="117">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="146"/>
-      <c r="B12" s="98"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2356,16 +2355,16 @@
         <f t="shared" ref="N12:N14" si="2">K12+M12</f>
         <v>6</v>
       </c>
-      <c r="O12" s="111"/>
+      <c r="O12" s="113"/>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="146"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -2394,16 +2393,16 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O13" s="111"/>
+      <c r="O13" s="113"/>
     </row>
     <row r="14" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="146"/>
-      <c r="B14" s="98"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -2432,42 +2431,42 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O14" s="111"/>
+      <c r="O14" s="113"/>
     </row>
     <row r="15" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="122" t="s">
+      <c r="A15" s="131"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="149"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="123"/>
       <c r="N15" s="25">
         <f>SUM(N11:N14)</f>
         <v>13</v>
       </c>
-      <c r="O15" s="112"/>
+      <c r="O15" s="114"/>
     </row>
     <row r="16" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="115">
+      <c r="A16" s="138">
         <v>4</v>
       </c>
       <c r="B16" s="77" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="E16" s="11">
         <v>0</v>
@@ -2496,12 +2495,12 @@
         <f>K16+M16</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O16" s="110">
+      <c r="O16" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="77" t="s">
         <v>29</v>
       </c>
@@ -2538,32 +2537,32 @@
         <f t="shared" ref="N17" si="3">K17+M17</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O17" s="111"/>
+      <c r="O17" s="113"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="77"/>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
       <c r="M18" s="24"/>
       <c r="N18" s="25">
         <f>SUM(N16:N17)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O18" s="112"/>
+      <c r="O18" s="114"/>
     </row>
     <row r="19" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104">
+      <c r="A19" s="97">
         <v>5</v>
       </c>
       <c r="B19" s="79" t="s">
@@ -2602,12 +2601,12 @@
         <f>K19+M19</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="O19" s="110">
+      <c r="O19" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="79" t="s">
         <v>37</v>
       </c>
@@ -2644,10 +2643,10 @@
         <f t="shared" ref="N20:N22" si="4">K20+M20</f>
         <v>4</v>
       </c>
-      <c r="O20" s="111"/>
+      <c r="O20" s="113"/>
     </row>
     <row r="21" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
+      <c r="A21" s="98"/>
       <c r="B21" s="79" t="s">
         <v>37</v>
       </c>
@@ -2684,10 +2683,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="O21" s="111"/>
+      <c r="O21" s="113"/>
     </row>
     <row r="22" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
+      <c r="A22" s="98"/>
       <c r="B22" s="79" t="s">
         <v>37</v>
       </c>
@@ -2724,32 +2723,32 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="O22" s="111"/>
+      <c r="O22" s="113"/>
     </row>
     <row r="23" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="78"/>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
       <c r="N23" s="31">
         <f>SUM(N19:N22)</f>
         <v>15.333333333333332</v>
       </c>
-      <c r="O23" s="112"/>
+      <c r="O23" s="114"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104">
+      <c r="A24" s="97">
         <v>6</v>
       </c>
       <c r="B24" s="79" t="s">
@@ -2788,12 +2787,12 @@
         <f>K24+M24</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="O24" s="110">
+      <c r="O24" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="105"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="79" t="s">
         <v>77</v>
       </c>
@@ -2830,10 +2829,10 @@
         <f t="shared" ref="N25:N26" si="5">K25+M25</f>
         <v>4.6666666666666661</v>
       </c>
-      <c r="O25" s="111"/>
+      <c r="O25" s="113"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="105"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="79" t="s">
         <v>77</v>
       </c>
@@ -2870,32 +2869,32 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="O26" s="111"/>
+      <c r="O26" s="113"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="106"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="78"/>
-      <c r="C27" s="113" t="s">
+      <c r="C27" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="113"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
       <c r="N27" s="34">
         <f>SUM(N24:N26)</f>
         <v>14</v>
       </c>
-      <c r="O27" s="112"/>
+      <c r="O27" s="114"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="138" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="81" t="s">
@@ -2905,7 +2904,7 @@
         <v>43</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E28" s="11">
         <v>0</v>
@@ -2914,8 +2913,8 @@
         <v>1</v>
       </c>
       <c r="G28" s="12"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
       <c r="J28" s="42">
         <v>0</v>
       </c>
@@ -2934,12 +2933,12 @@
         <f>K28+M28</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O28" s="136">
+      <c r="O28" s="139">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="115"/>
+      <c r="A29" s="138"/>
       <c r="B29" s="81" t="s">
         <v>46</v>
       </c>
@@ -2947,7 +2946,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -2976,10 +2975,10 @@
         <f t="shared" ref="N29:N30" si="6">K29+M29</f>
         <v>8</v>
       </c>
-      <c r="O29" s="136"/>
+      <c r="O29" s="139"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="105"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="81" t="s">
         <v>46</v>
       </c>
@@ -2996,8 +2995,8 @@
         <v>1</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
       <c r="J30" s="51">
         <v>1</v>
       </c>
@@ -3016,32 +3015,32 @@
         <f t="shared" si="6"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="O30" s="137"/>
+      <c r="O30" s="140"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="80"/>
-      <c r="C31" s="113" t="s">
+      <c r="C31" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="113"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
       <c r="N31" s="50">
         <f>SUM(N28:N30)</f>
         <v>13</v>
       </c>
-      <c r="O31" s="138"/>
+      <c r="O31" s="141"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="117">
+      <c r="A32" s="101">
         <v>8</v>
       </c>
       <c r="B32" s="82" t="s">
@@ -3080,12 +3079,12 @@
         <f>K32+M32</f>
         <v>3</v>
       </c>
-      <c r="O32" s="129">
+      <c r="O32" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="118"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="82" t="s">
         <v>49</v>
       </c>
@@ -3122,10 +3121,10 @@
         <f t="shared" ref="N33:N34" si="7">K33+M33</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O33" s="130"/>
+      <c r="O33" s="135"/>
     </row>
     <row r="34" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="118"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="82" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3141,8 @@
         <v>4</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
       <c r="J34" s="5">
         <v>2</v>
       </c>
@@ -3162,32 +3161,32 @@
         <f t="shared" si="7"/>
         <v>7.333333333333333</v>
       </c>
-      <c r="O34" s="130"/>
+      <c r="O34" s="135"/>
     </row>
     <row r="35" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="102"/>
       <c r="B35" s="83"/>
-      <c r="C35" s="151" t="s">
+      <c r="C35" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="116"/>
       <c r="N35" s="52">
         <f>SUM(N32:N34)</f>
         <v>13</v>
       </c>
-      <c r="O35" s="131"/>
+      <c r="O35" s="136"/>
     </row>
     <row r="36" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="104">
+      <c r="A36" s="97">
         <v>9</v>
       </c>
       <c r="B36" s="84" t="s">
@@ -3226,12 +3225,12 @@
         <f>K36+M36</f>
         <v>2.333333333333333</v>
       </c>
-      <c r="O36" s="110">
+      <c r="O36" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="105"/>
+      <c r="A37" s="98"/>
       <c r="B37" s="84" t="s">
         <v>55</v>
       </c>
@@ -3268,10 +3267,10 @@
         <f t="shared" ref="N37:N40" si="8">K37+M37</f>
         <v>2.333333333333333</v>
       </c>
-      <c r="O37" s="111"/>
+      <c r="O37" s="113"/>
     </row>
     <row r="38" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="105"/>
+      <c r="A38" s="98"/>
       <c r="B38" s="84" t="s">
         <v>55</v>
       </c>
@@ -3308,10 +3307,10 @@
         <f t="shared" si="8"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="O38" s="111"/>
+      <c r="O38" s="113"/>
     </row>
     <row r="39" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="105"/>
+      <c r="A39" s="98"/>
       <c r="B39" s="84" t="s">
         <v>55</v>
       </c>
@@ -3348,10 +3347,10 @@
         <f t="shared" si="8"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="O39" s="111"/>
+      <c r="O39" s="113"/>
     </row>
     <row r="40" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="105"/>
+      <c r="A40" s="98"/>
       <c r="B40" s="84" t="s">
         <v>55</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E40" s="8">
         <v>0</v>
@@ -3388,33 +3387,33 @@
         <f t="shared" si="8"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O40" s="111"/>
+      <c r="O40" s="113"/>
     </row>
     <row r="41" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="106"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="85"/>
-      <c r="C41" s="135" t="s">
+      <c r="C41" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="137"/>
       <c r="N41" s="39">
         <f>SUM(N36:N40)</f>
         <v>11.999999999999998</v>
       </c>
-      <c r="O41" s="112"/>
+      <c r="O41" s="114"/>
       <c r="R41" s="40"/>
     </row>
     <row r="42" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="117">
+      <c r="A42" s="101">
         <v>10</v>
       </c>
       <c r="B42" s="86" t="s">
@@ -3424,7 +3423,7 @@
         <v>57</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E42" s="11">
         <v>1</v>
@@ -3453,12 +3452,12 @@
         <f>K42+M42</f>
         <v>3</v>
       </c>
-      <c r="O42" s="129">
+      <c r="O42" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="118"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="86" t="s">
         <v>56</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>57</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E43" s="5">
         <v>2</v>
@@ -3475,8 +3474,8 @@
         <v>0</v>
       </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
       <c r="J43" s="46">
         <v>3</v>
       </c>
@@ -3495,32 +3494,32 @@
         <f t="shared" ref="N43" si="9">K43+M43</f>
         <v>6</v>
       </c>
-      <c r="O43" s="130"/>
+      <c r="O43" s="135"/>
     </row>
     <row r="44" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="A44" s="102"/>
       <c r="B44" s="87"/>
-      <c r="C44" s="134" t="s">
+      <c r="C44" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
       <c r="N44" s="52">
         <f>SUM(N42:N43)</f>
         <v>9</v>
       </c>
-      <c r="O44" s="131"/>
+      <c r="O44" s="136"/>
     </row>
     <row r="45" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="117">
+      <c r="A45" s="101">
         <v>11</v>
       </c>
       <c r="B45" s="82" t="s">
@@ -3559,12 +3558,12 @@
         <f>K45+M45</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="O45" s="129">
+      <c r="O45" s="134">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="118"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="82" t="s">
         <v>58</v>
       </c>
@@ -3601,10 +3600,10 @@
         <f t="shared" ref="N46:N48" si="10">K46+M46</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="O46" s="130"/>
+      <c r="O46" s="135"/>
     </row>
     <row r="47" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
+      <c r="A47" s="111"/>
       <c r="B47" s="82" t="s">
         <v>58</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>27</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E47" s="2">
         <v>1</v>
@@ -3641,10 +3640,10 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O47" s="130"/>
+      <c r="O47" s="135"/>
     </row>
     <row r="48" spans="1:18" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="118"/>
+      <c r="A48" s="111"/>
       <c r="B48" s="82" t="s">
         <v>58</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>61</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
@@ -3661,10 +3660,10 @@
         <v>2</v>
       </c>
       <c r="G48" s="6"/>
-      <c r="H48" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="133"/>
+      <c r="H48" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="115"/>
       <c r="J48" s="5">
         <v>3</v>
       </c>
@@ -3683,32 +3682,32 @@
         <f t="shared" si="10"/>
         <v>5.6666666666666661</v>
       </c>
-      <c r="O48" s="130"/>
+      <c r="O48" s="135"/>
     </row>
     <row r="49" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="119"/>
+      <c r="A49" s="102"/>
       <c r="B49" s="88"/>
-      <c r="C49" s="134" t="s">
+      <c r="C49" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
       <c r="N49" s="52">
         <f>SUM(N45:N48)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="O49" s="131"/>
+      <c r="O49" s="136"/>
     </row>
     <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="104">
+      <c r="A50" s="97">
         <v>12</v>
       </c>
       <c r="B50" s="77" t="s">
@@ -3747,12 +3746,12 @@
         <f>K50+M50</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="O50" s="110">
+      <c r="O50" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="105"/>
+      <c r="A51" s="98"/>
       <c r="B51" s="77" t="s">
         <v>64</v>
       </c>
@@ -3789,10 +3788,10 @@
         <f t="shared" ref="N51:N53" si="11">K51+M51</f>
         <v>2</v>
       </c>
-      <c r="O51" s="111"/>
+      <c r="O51" s="113"/>
     </row>
     <row r="52" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="105"/>
+      <c r="A52" s="98"/>
       <c r="B52" s="77" t="s">
         <v>64</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>57</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -3829,10 +3828,10 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="O52" s="111"/>
+      <c r="O52" s="113"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="105"/>
+      <c r="A53" s="98"/>
       <c r="B53" s="77" t="s">
         <v>64</v>
       </c>
@@ -3869,32 +3868,32 @@
         <f t="shared" si="11"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O53" s="111"/>
+      <c r="O53" s="113"/>
     </row>
     <row r="54" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="106"/>
+      <c r="A54" s="99"/>
       <c r="B54" s="78"/>
-      <c r="C54" s="114" t="s">
+      <c r="C54" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="114"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="114"/>
-      <c r="J54" s="114"/>
-      <c r="K54" s="114"/>
-      <c r="L54" s="114"/>
-      <c r="M54" s="114"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
+      <c r="M54" s="144"/>
       <c r="N54" s="34">
         <f>SUM(N50:N53)</f>
         <v>13.999999999999998</v>
       </c>
-      <c r="O54" s="112"/>
+      <c r="O54" s="114"/>
     </row>
     <row r="55" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="115">
+      <c r="A55" s="138">
         <v>13</v>
       </c>
       <c r="B55" s="77" t="s">
@@ -3904,7 +3903,7 @@
         <v>57</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E55" s="8">
         <v>0</v>
@@ -3933,12 +3932,12 @@
         <f>K55+M55</f>
         <v>2</v>
       </c>
-      <c r="O55" s="116">
+      <c r="O55" s="124">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="105"/>
+      <c r="A56" s="98"/>
       <c r="B56" s="77" t="s">
         <v>66</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>57</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -3975,10 +3974,10 @@
         <f t="shared" ref="N56:N59" si="12">K56+M56</f>
         <v>4</v>
       </c>
-      <c r="O56" s="111"/>
+      <c r="O56" s="113"/>
     </row>
     <row r="57" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="105"/>
+      <c r="A57" s="98"/>
       <c r="B57" s="77" t="s">
         <v>66</v>
       </c>
@@ -4015,10 +4014,10 @@
         <f t="shared" si="12"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="O57" s="111"/>
+      <c r="O57" s="113"/>
     </row>
     <row r="58" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="105"/>
+      <c r="A58" s="98"/>
       <c r="B58" s="77" t="s">
         <v>66</v>
       </c>
@@ -4055,11 +4054,11 @@
         <f t="shared" si="12"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O58" s="111"/>
+      <c r="O58" s="113"/>
       <c r="S58" s="40"/>
     </row>
     <row r="59" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="105"/>
+      <c r="A59" s="98"/>
       <c r="B59" s="77" t="s">
         <v>66</v>
       </c>
@@ -4096,35 +4095,35 @@
         <f t="shared" si="12"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="O59" s="111"/>
+      <c r="O59" s="113"/>
     </row>
     <row r="60" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="106"/>
+      <c r="A60" s="99"/>
       <c r="B60" s="78"/>
-      <c r="C60" s="114" t="s">
+      <c r="C60" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114"/>
-      <c r="K60" s="114"/>
-      <c r="L60" s="114"/>
-      <c r="M60" s="114"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
       <c r="N60" s="34">
         <f>SUM(N55:N59)</f>
         <v>15.333333333333332</v>
       </c>
-      <c r="O60" s="112"/>
+      <c r="O60" s="114"/>
     </row>
     <row r="61" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="104">
+      <c r="A61" s="97">
         <v>14</v>
       </c>
-      <c r="B61" s="100" t="s">
+      <c r="B61" s="157" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -4160,13 +4159,13 @@
         <f>K61+M61</f>
         <v>3.6666666666666665</v>
       </c>
-      <c r="O61" s="110">
+      <c r="O61" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="105"/>
-      <c r="B62" s="101"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="158"/>
       <c r="C62" s="1" t="s">
         <v>68</v>
       </c>
@@ -4200,11 +4199,11 @@
         <f t="shared" ref="N62:N64" si="13">K62+M62</f>
         <v>4.6666666666666661</v>
       </c>
-      <c r="O62" s="111"/>
+      <c r="O62" s="113"/>
     </row>
     <row r="63" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="105"/>
-      <c r="B63" s="101"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="158"/>
       <c r="C63" s="1" t="s">
         <v>69</v>
       </c>
@@ -4238,11 +4237,11 @@
         <f t="shared" si="13"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O63" s="111"/>
+      <c r="O63" s="113"/>
     </row>
     <row r="64" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="105"/>
-      <c r="B64" s="102"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="159"/>
       <c r="C64" s="4" t="s">
         <v>70</v>
       </c>
@@ -4276,32 +4275,32 @@
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="O64" s="111"/>
+      <c r="O64" s="113"/>
     </row>
     <row r="65" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
+      <c r="A65" s="99"/>
       <c r="B65" s="78"/>
-      <c r="C65" s="114" t="s">
+      <c r="C65" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="114"/>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
-      <c r="G65" s="114"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="114"/>
-      <c r="J65" s="114"/>
-      <c r="K65" s="114"/>
-      <c r="L65" s="114"/>
-      <c r="M65" s="114"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="144"/>
+      <c r="L65" s="144"/>
+      <c r="M65" s="144"/>
       <c r="N65" s="34">
         <f>SUM(N61:N64)</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="O65" s="112"/>
+      <c r="O65" s="114"/>
     </row>
     <row r="66" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="104">
+      <c r="A66" s="97">
         <v>15</v>
       </c>
       <c r="B66" s="79" t="s">
@@ -4340,12 +4339,12 @@
         <f>K66+M66</f>
         <v>4</v>
       </c>
-      <c r="O66" s="110" t="s">
+      <c r="O66" s="117" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="105"/>
+      <c r="A67" s="98"/>
       <c r="B67" s="79" t="s">
         <v>75</v>
       </c>
@@ -4382,10 +4381,10 @@
         <f t="shared" ref="N67:N68" si="14">K67+M67</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O67" s="111"/>
+      <c r="O67" s="113"/>
     </row>
     <row r="68" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="105"/>
+      <c r="A68" s="98"/>
       <c r="B68" s="79" t="s">
         <v>75</v>
       </c>
@@ -4422,42 +4421,42 @@
         <f t="shared" si="14"/>
         <v>9.3333333333333321</v>
       </c>
-      <c r="O68" s="111"/>
+      <c r="O68" s="113"/>
     </row>
     <row r="69" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="106"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="78"/>
-      <c r="C69" s="132" t="s">
+      <c r="C69" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="132"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="132"/>
-      <c r="M69" s="132"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="143"/>
+      <c r="F69" s="143"/>
+      <c r="G69" s="143"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="143"/>
+      <c r="J69" s="143"/>
+      <c r="K69" s="143"/>
+      <c r="L69" s="143"/>
+      <c r="M69" s="143"/>
       <c r="N69" s="31">
         <f>SUM(N66:N68)</f>
         <v>14.666666666666664</v>
       </c>
-      <c r="O69" s="112"/>
+      <c r="O69" s="114"/>
     </row>
     <row r="70" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="104">
+      <c r="A70" s="97">
         <v>16</v>
       </c>
       <c r="B70" s="90" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" s="8">
         <v>3</v>
@@ -4486,20 +4485,20 @@
         <f>K70+M70</f>
         <v>3</v>
       </c>
-      <c r="O70" s="110">
+      <c r="O70" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="105"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="90" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -4528,18 +4527,18 @@
         <f t="shared" ref="N71:N72" si="15">K71+M71</f>
         <v>3</v>
       </c>
-      <c r="O71" s="111"/>
+      <c r="O71" s="113"/>
     </row>
     <row r="72" spans="1:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="105"/>
+      <c r="A72" s="98"/>
       <c r="B72" s="90" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -4568,42 +4567,42 @@
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="O72" s="111"/>
+      <c r="O72" s="113"/>
     </row>
     <row r="73" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="106"/>
+      <c r="A73" s="99"/>
       <c r="B73" s="78"/>
-      <c r="C73" s="132" t="s">
+      <c r="C73" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="132"/>
-      <c r="E73" s="132"/>
-      <c r="F73" s="132"/>
-      <c r="G73" s="132"/>
-      <c r="H73" s="132"/>
-      <c r="I73" s="132"/>
-      <c r="J73" s="132"/>
-      <c r="K73" s="132"/>
-      <c r="L73" s="132"/>
-      <c r="M73" s="132"/>
+      <c r="D73" s="143"/>
+      <c r="E73" s="143"/>
+      <c r="F73" s="143"/>
+      <c r="G73" s="143"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="143"/>
+      <c r="J73" s="143"/>
+      <c r="K73" s="143"/>
+      <c r="L73" s="143"/>
+      <c r="M73" s="143"/>
       <c r="N73" s="61">
         <f>SUM(N70:N72)</f>
         <v>9</v>
       </c>
-      <c r="O73" s="112"/>
+      <c r="O73" s="114"/>
     </row>
     <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="104">
+      <c r="A74" s="97">
         <v>17</v>
       </c>
-      <c r="B74" s="107" t="s">
-        <v>114</v>
+      <c r="B74" s="145" t="s">
+        <v>108</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E74" s="8">
         <v>2</v>
@@ -4632,18 +4631,18 @@
         <f>K74+M74</f>
         <v>6</v>
       </c>
-      <c r="O74" s="110">
+      <c r="O74" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="105"/>
-      <c r="B75" s="108"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="146"/>
       <c r="C75" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
@@ -4672,11 +4671,11 @@
         <f t="shared" ref="N75:N76" si="16">K75+M75</f>
         <v>3</v>
       </c>
-      <c r="O75" s="111"/>
+      <c r="O75" s="113"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="105"/>
-      <c r="B76" s="108"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="146"/>
       <c r="C76" s="4" t="s">
         <v>78</v>
       </c>
@@ -4710,42 +4709,42 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="O76" s="111"/>
+      <c r="O76" s="113"/>
     </row>
     <row r="77" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="106"/>
-      <c r="B77" s="109"/>
-      <c r="C77" s="114" t="s">
+      <c r="A77" s="99"/>
+      <c r="B77" s="147"/>
+      <c r="C77" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="114"/>
-      <c r="H77" s="114"/>
-      <c r="I77" s="114"/>
-      <c r="J77" s="114"/>
-      <c r="K77" s="114"/>
-      <c r="L77" s="114"/>
-      <c r="M77" s="114"/>
+      <c r="D77" s="144"/>
+      <c r="E77" s="144"/>
+      <c r="F77" s="144"/>
+      <c r="G77" s="144"/>
+      <c r="H77" s="144"/>
+      <c r="I77" s="144"/>
+      <c r="J77" s="144"/>
+      <c r="K77" s="144"/>
+      <c r="L77" s="144"/>
+      <c r="M77" s="144"/>
       <c r="N77" s="63">
         <f>SUM(N74:N76)</f>
         <v>11</v>
       </c>
-      <c r="O77" s="112"/>
+      <c r="O77" s="114"/>
     </row>
     <row r="78" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="104">
+      <c r="A78" s="97">
         <v>18</v>
       </c>
-      <c r="B78" s="107" t="s">
+      <c r="B78" s="145" t="s">
         <v>82</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E78" s="8">
         <v>0</v>
@@ -4774,13 +4773,13 @@
         <f>K78+M78</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="O78" s="110">
+      <c r="O78" s="117">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="105"/>
-      <c r="B79" s="108"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="146"/>
       <c r="C79" s="1" t="s">
         <v>47</v>
       </c>
@@ -4814,16 +4813,16 @@
         <f t="shared" ref="N79:N81" si="17">K79+M79</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O79" s="111"/>
+      <c r="O79" s="113"/>
     </row>
     <row r="80" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="105"/>
-      <c r="B80" s="108"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="146"/>
       <c r="C80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -4852,11 +4851,11 @@
         <f t="shared" si="17"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O80" s="111"/>
+      <c r="O80" s="113"/>
     </row>
     <row r="81" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="105"/>
-      <c r="B81" s="108"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="146"/>
       <c r="C81" s="4" t="s">
         <v>81</v>
       </c>
@@ -4890,35 +4889,35 @@
         <f t="shared" si="17"/>
         <v>4.6666666666666661</v>
       </c>
-      <c r="O81" s="111"/>
+      <c r="O81" s="113"/>
     </row>
     <row r="82" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
-      <c r="B82" s="109"/>
-      <c r="C82" s="114" t="s">
+      <c r="A82" s="99"/>
+      <c r="B82" s="147"/>
+      <c r="C82" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="114"/>
-      <c r="L82" s="114"/>
-      <c r="M82" s="114"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="144"/>
+      <c r="F82" s="144"/>
+      <c r="G82" s="144"/>
+      <c r="H82" s="144"/>
+      <c r="I82" s="144"/>
+      <c r="J82" s="144"/>
+      <c r="K82" s="144"/>
+      <c r="L82" s="144"/>
+      <c r="M82" s="144"/>
       <c r="N82" s="34">
         <f>SUM(N78:N81)</f>
         <v>13.999999999999998</v>
       </c>
-      <c r="O82" s="112"/>
+      <c r="O82" s="114"/>
     </row>
     <row r="83" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="117">
+      <c r="A83" s="101">
         <v>19</v>
       </c>
-      <c r="B83" s="120" t="s">
+      <c r="B83" s="148" t="s">
         <v>88</v>
       </c>
       <c r="C83" s="7" t="s">
@@ -4954,13 +4953,13 @@
         <f>K83+M83</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O83" s="123" t="s">
+      <c r="O83" s="150" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="118"/>
-      <c r="B84" s="121"/>
+      <c r="A84" s="111"/>
+      <c r="B84" s="149"/>
       <c r="C84" s="66" t="s">
         <v>84</v>
       </c>
@@ -4994,11 +4993,11 @@
         <f t="shared" ref="N84" si="18">K84+M84</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="O84" s="124"/>
+      <c r="O84" s="151"/>
     </row>
     <row r="85" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="118"/>
-      <c r="B85" s="121"/>
+      <c r="A85" s="111"/>
+      <c r="B85" s="149"/>
       <c r="C85" s="53" t="s">
         <v>86</v>
       </c>
@@ -5032,35 +5031,35 @@
         <f t="shared" ref="N85" si="19">K85+M85</f>
         <v>4</v>
       </c>
-      <c r="O85" s="124"/>
+      <c r="O85" s="151"/>
     </row>
     <row r="86" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="119"/>
-      <c r="B86" s="122"/>
-      <c r="C86" s="126" t="s">
+      <c r="A86" s="102"/>
+      <c r="B86" s="121"/>
+      <c r="C86" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="127"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="127"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="127"/>
-      <c r="I86" s="127"/>
-      <c r="J86" s="127"/>
-      <c r="K86" s="127"/>
-      <c r="L86" s="127"/>
-      <c r="M86" s="128"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="109"/>
+      <c r="F86" s="109"/>
+      <c r="G86" s="109"/>
+      <c r="H86" s="109"/>
+      <c r="I86" s="109"/>
+      <c r="J86" s="109"/>
+      <c r="K86" s="109"/>
+      <c r="L86" s="109"/>
+      <c r="M86" s="110"/>
       <c r="N86" s="63">
         <f>SUM(N83:N85)</f>
         <v>12</v>
       </c>
-      <c r="O86" s="125"/>
+      <c r="O86" s="152"/>
     </row>
     <row r="87" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="117">
+      <c r="A87" s="101">
         <v>20</v>
       </c>
-      <c r="B87" s="153" t="s">
+      <c r="B87" s="103" t="s">
         <v>100</v>
       </c>
       <c r="C87" s="74" t="s">
@@ -5095,13 +5094,13 @@
         <f t="shared" ref="N87:N88" si="20">K87+M87</f>
         <v>8</v>
       </c>
-      <c r="O87" s="123" t="s">
+      <c r="O87" s="150" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="118"/>
-      <c r="B88" s="160"/>
+      <c r="A88" s="111"/>
+      <c r="B88" s="112"/>
       <c r="C88" s="53" t="s">
         <v>86</v>
       </c>
@@ -5135,33 +5134,33 @@
         <f t="shared" si="20"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O88" s="124"/>
+      <c r="O88" s="151"/>
     </row>
     <row r="89" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="119"/>
-      <c r="B89" s="113"/>
-      <c r="C89" s="155"/>
-      <c r="D89" s="156"/>
-      <c r="E89" s="156"/>
-      <c r="F89" s="156"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="156"/>
-      <c r="I89" s="156"/>
-      <c r="J89" s="156"/>
-      <c r="K89" s="156"/>
-      <c r="L89" s="156"/>
-      <c r="M89" s="157"/>
+      <c r="A89" s="102"/>
+      <c r="B89" s="100"/>
+      <c r="C89" s="105"/>
+      <c r="D89" s="106"/>
+      <c r="E89" s="106"/>
+      <c r="F89" s="106"/>
+      <c r="G89" s="106"/>
+      <c r="H89" s="106"/>
+      <c r="I89" s="106"/>
+      <c r="J89" s="106"/>
+      <c r="K89" s="106"/>
+      <c r="L89" s="106"/>
+      <c r="M89" s="107"/>
       <c r="N89" s="34">
         <f>SUM(N87:N88)</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="O89" s="125"/>
+      <c r="O89" s="152"/>
     </row>
     <row r="90" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="117">
+      <c r="A90" s="101">
         <v>21</v>
       </c>
-      <c r="B90" s="153" t="s">
+      <c r="B90" s="103" t="s">
         <v>101</v>
       </c>
       <c r="C90" s="53" t="s">
@@ -5197,35 +5196,35 @@
         <f t="shared" ref="N90" si="21">K90+M90</f>
         <v>12</v>
       </c>
-      <c r="O90" s="158" t="s">
+      <c r="O90" s="153" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="119"/>
-      <c r="B91" s="154"/>
-      <c r="C91" s="126"/>
-      <c r="D91" s="127"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="127"/>
-      <c r="G91" s="127"/>
-      <c r="H91" s="127"/>
-      <c r="I91" s="127"/>
-      <c r="J91" s="127"/>
-      <c r="K91" s="127"/>
-      <c r="L91" s="127"/>
-      <c r="M91" s="128"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="109"/>
+      <c r="F91" s="109"/>
+      <c r="G91" s="109"/>
+      <c r="H91" s="109"/>
+      <c r="I91" s="109"/>
+      <c r="J91" s="109"/>
+      <c r="K91" s="109"/>
+      <c r="L91" s="109"/>
+      <c r="M91" s="110"/>
       <c r="N91" s="63">
         <f>SUM(N90)</f>
         <v>12</v>
       </c>
-      <c r="O91" s="159"/>
+      <c r="O91" s="154"/>
     </row>
     <row r="92" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="115">
+      <c r="A92" s="138">
         <v>22</v>
       </c>
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="145" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -5261,13 +5260,13 @@
         <f>K92+M92</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O92" s="116" t="s">
+      <c r="O92" s="124" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="105"/>
-      <c r="B93" s="108"/>
+      <c r="A93" s="98"/>
+      <c r="B93" s="146"/>
       <c r="C93" s="4" t="s">
         <v>91</v>
       </c>
@@ -5301,35 +5300,35 @@
         <f t="shared" ref="N93" si="22">K93+M93</f>
         <v>3</v>
       </c>
-      <c r="O93" s="111"/>
+      <c r="O93" s="113"/>
     </row>
     <row r="94" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="106"/>
-      <c r="B94" s="109"/>
-      <c r="C94" s="114" t="s">
+      <c r="A94" s="99"/>
+      <c r="B94" s="147"/>
+      <c r="C94" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="114"/>
-      <c r="E94" s="114"/>
-      <c r="F94" s="114"/>
-      <c r="G94" s="114"/>
-      <c r="H94" s="114"/>
-      <c r="I94" s="114"/>
-      <c r="J94" s="114"/>
-      <c r="K94" s="114"/>
-      <c r="L94" s="114"/>
-      <c r="M94" s="114"/>
+      <c r="D94" s="144"/>
+      <c r="E94" s="144"/>
+      <c r="F94" s="144"/>
+      <c r="G94" s="144"/>
+      <c r="H94" s="144"/>
+      <c r="I94" s="144"/>
+      <c r="J94" s="144"/>
+      <c r="K94" s="144"/>
+      <c r="L94" s="144"/>
+      <c r="M94" s="144"/>
       <c r="N94" s="34">
         <f>SUM(N92:N93)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="O94" s="112"/>
+      <c r="O94" s="114"/>
     </row>
     <row r="95" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="104">
+      <c r="A95" s="97">
         <v>23</v>
       </c>
-      <c r="B95" s="107" t="s">
+      <c r="B95" s="145" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="7" t="s">
@@ -5365,13 +5364,13 @@
         <f>K95+M95</f>
         <v>4.6666666666666661</v>
       </c>
-      <c r="O95" s="110" t="s">
+      <c r="O95" s="117" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="105"/>
-      <c r="B96" s="108"/>
+      <c r="A96" s="98"/>
+      <c r="B96" s="146"/>
       <c r="C96" s="4" t="s">
         <v>93</v>
       </c>
@@ -5405,35 +5404,35 @@
         <f t="shared" ref="N96" si="23">K96+M96</f>
         <v>14.666666666666666</v>
       </c>
-      <c r="O96" s="111"/>
+      <c r="O96" s="113"/>
     </row>
     <row r="97" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="106"/>
-      <c r="B97" s="109"/>
-      <c r="C97" s="114" t="s">
+      <c r="A97" s="99"/>
+      <c r="B97" s="147"/>
+      <c r="C97" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="114"/>
-      <c r="E97" s="114"/>
-      <c r="F97" s="114"/>
-      <c r="G97" s="114"/>
-      <c r="H97" s="114"/>
-      <c r="I97" s="114"/>
-      <c r="J97" s="114"/>
-      <c r="K97" s="114"/>
-      <c r="L97" s="114"/>
-      <c r="M97" s="114"/>
+      <c r="D97" s="144"/>
+      <c r="E97" s="144"/>
+      <c r="F97" s="144"/>
+      <c r="G97" s="144"/>
+      <c r="H97" s="144"/>
+      <c r="I97" s="144"/>
+      <c r="J97" s="144"/>
+      <c r="K97" s="144"/>
+      <c r="L97" s="144"/>
+      <c r="M97" s="144"/>
       <c r="N97" s="34">
         <f>SUM(N95:N96)</f>
         <v>19.333333333333332</v>
       </c>
-      <c r="O97" s="112"/>
+      <c r="O97" s="114"/>
     </row>
     <row r="98" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="104">
+      <c r="A98" s="97">
         <v>24</v>
       </c>
-      <c r="B98" s="107" t="s">
+      <c r="B98" s="145" t="s">
         <v>102</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -5469,13 +5468,13 @@
         <f>K98+M98</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="O98" s="110" t="s">
+      <c r="O98" s="117" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="105"/>
-      <c r="B99" s="108"/>
+      <c r="A99" s="98"/>
+      <c r="B99" s="146"/>
       <c r="C99" s="1" t="s">
         <v>95</v>
       </c>
@@ -5509,11 +5508,11 @@
         <f t="shared" ref="N99:N102" si="24">K99+M99</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O99" s="111"/>
+      <c r="O99" s="113"/>
     </row>
     <row r="100" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="105"/>
-      <c r="B100" s="108"/>
+      <c r="A100" s="98"/>
+      <c r="B100" s="146"/>
       <c r="C100" s="1" t="s">
         <v>95</v>
       </c>
@@ -5547,16 +5546,16 @@
         <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="O100" s="111"/>
+      <c r="O100" s="113"/>
     </row>
     <row r="101" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="105"/>
-      <c r="B101" s="108"/>
+      <c r="A101" s="98"/>
+      <c r="B101" s="146"/>
       <c r="C101" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -5585,11 +5584,11 @@
         <f t="shared" si="24"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="O101" s="111"/>
+      <c r="O101" s="113"/>
     </row>
     <row r="102" spans="1:15" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="105"/>
-      <c r="B102" s="108"/>
+      <c r="A102" s="98"/>
+      <c r="B102" s="146"/>
       <c r="C102" s="4" t="s">
         <v>97</v>
       </c>
@@ -5623,88 +5622,82 @@
         <f t="shared" si="24"/>
         <v>3.333333333333333</v>
       </c>
-      <c r="O102" s="111"/>
+      <c r="O102" s="113"/>
     </row>
     <row r="103" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
-      <c r="B103" s="109"/>
-      <c r="C103" s="113" t="s">
+      <c r="A103" s="99"/>
+      <c r="B103" s="147"/>
+      <c r="C103" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="113"/>
-      <c r="E103" s="113"/>
-      <c r="F103" s="113"/>
-      <c r="G103" s="113"/>
-      <c r="H103" s="113"/>
-      <c r="I103" s="113"/>
-      <c r="J103" s="113"/>
-      <c r="K103" s="113"/>
-      <c r="L103" s="113"/>
-      <c r="M103" s="113"/>
+      <c r="D103" s="100"/>
+      <c r="E103" s="100"/>
+      <c r="F103" s="100"/>
+      <c r="G103" s="100"/>
+      <c r="H103" s="100"/>
+      <c r="I103" s="100"/>
+      <c r="J103" s="100"/>
+      <c r="K103" s="100"/>
+      <c r="L103" s="100"/>
+      <c r="M103" s="100"/>
       <c r="N103" s="34">
         <f>SUM(N98:N102)</f>
         <v>18</v>
       </c>
-      <c r="O103" s="112"/>
+      <c r="O103" s="114"/>
     </row>
     <row r="105" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="J105" s="103"/>
-      <c r="K105" s="103"/>
-      <c r="L105" s="103"/>
-      <c r="M105" s="103"/>
-      <c r="N105" s="103"/>
+      <c r="J105" s="160"/>
+      <c r="K105" s="160"/>
+      <c r="L105" s="160"/>
+      <c r="M105" s="160"/>
+      <c r="N105" s="160"/>
     </row>
     <row r="106" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="J106" s="103"/>
-      <c r="K106" s="103"/>
-      <c r="L106" s="103"/>
-      <c r="M106" s="103"/>
-      <c r="N106" s="103"/>
+      <c r="J106" s="160"/>
+      <c r="K106" s="160"/>
+      <c r="L106" s="160"/>
+      <c r="M106" s="160"/>
+      <c r="N106" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C89:M89"/>
-    <mergeCell ref="C91:M91"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="O19:O23"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="O6:O10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="O11:O15"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:M49"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="O36:O41"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:M44"/>
-    <mergeCell ref="C41:M41"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="J105:N105"/>
+    <mergeCell ref="J106:N106"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="O98:O103"/>
+    <mergeCell ref="C103:M103"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="O95:O97"/>
+    <mergeCell ref="C97:M97"/>
+    <mergeCell ref="O92:O94"/>
+    <mergeCell ref="C94:M94"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="O83:O86"/>
+    <mergeCell ref="C86:M86"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="O87:O89"/>
+    <mergeCell ref="O78:O82"/>
+    <mergeCell ref="C82:M82"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="O74:O77"/>
+    <mergeCell ref="C77:M77"/>
     <mergeCell ref="O45:O49"/>
     <mergeCell ref="A70:A73"/>
     <mergeCell ref="O70:O73"/>
@@ -5721,42 +5714,48 @@
     <mergeCell ref="O50:O54"/>
     <mergeCell ref="C54:M54"/>
     <mergeCell ref="A50:A54"/>
-    <mergeCell ref="O78:O82"/>
-    <mergeCell ref="C82:M82"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="O74:O77"/>
-    <mergeCell ref="C77:M77"/>
-    <mergeCell ref="O92:O94"/>
-    <mergeCell ref="C94:M94"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="O83:O86"/>
-    <mergeCell ref="C86:M86"/>
-    <mergeCell ref="O90:O91"/>
-    <mergeCell ref="O87:O89"/>
-    <mergeCell ref="O98:O103"/>
-    <mergeCell ref="C103:M103"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="O95:O97"/>
-    <mergeCell ref="C97:M97"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="J105:N105"/>
-    <mergeCell ref="J106:N106"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="O36:O41"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:M44"/>
+    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="O19:O23"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="O6:O10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="O11:O15"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C89:M89"/>
+    <mergeCell ref="C91:M91"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:M49"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
